--- a/data/trans_dic/P44D-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44D-Habitat-trans_dic.xlsx
@@ -686,14 +686,14 @@
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.01442220943004231</v>
+        <v>0.016958759699486</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
-        <v>0.01382364731470556</v>
+        <v>0.01419006413222223</v>
       </c>
     </row>
     <row r="6">
@@ -704,25 +704,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2652552176910102</v>
+        <v>0.3142664450541321</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.06216010026118819</v>
+        <v>0.0680841725471759</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3087031547802092</v>
+        <v>0.3276725337498795</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.06762547380797704</v>
+        <v>0.06960660708071327</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1888007359045016</v>
+        <v>0.2187743721226983</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>0.05536250941806602</v>
+        <v>0.05186192809840511</v>
       </c>
     </row>
     <row r="7">
@@ -752,7 +752,7 @@
         <v>0.1569937536502285</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.05216209826018203</v>
+        <v>0.05216209826018204</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.123429245123977</v>
@@ -775,28 +775,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05683735429888732</v>
+        <v>0.05745891239140358</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03609473460456751</v>
+        <v>0.03605623571497261</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03147166616264067</v>
+        <v>0.03129195531945279</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04229315687894476</v>
+        <v>0.03986762024397108</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02878368592749599</v>
+        <v>0.02725498239487424</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05292851032117842</v>
+        <v>0.05190121971402412</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08029170209228152</v>
+        <v>0.07913752906780179</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03890871807392646</v>
+        <v>0.03946430057104418</v>
       </c>
     </row>
     <row r="9">
@@ -807,31 +807,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.375572624968885</v>
+        <v>0.3543238246207726</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.293409405530496</v>
+        <v>0.3199137537705781</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1204174583160698</v>
+        <v>0.1178291656893806</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2806815988217295</v>
+        <v>0.2852816134737875</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3506307716024391</v>
+        <v>0.3416904698972133</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08678974485278258</v>
+        <v>0.09064957792405028</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2465099980621139</v>
+        <v>0.2502282937886514</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.271458161590523</v>
+        <v>0.266809851225392</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09081530401946941</v>
+        <v>0.08979516939240854</v>
       </c>
     </row>
     <row r="10">
@@ -852,7 +852,7 @@
         <v>0.1067345585207136</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1518908052115897</v>
+        <v>0.1518908052115896</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.2598549782106706</v>
@@ -884,28 +884,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03362770170790935</v>
+        <v>0.03408350541321053</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09500585383207763</v>
+        <v>0.09841198187181148</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08899306975849873</v>
+        <v>0.106288166988427</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05216937075376241</v>
+        <v>0.0519146432637723</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07753092557487383</v>
+        <v>0.07821182356750014</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07291839655198726</v>
+        <v>0.07314768630834956</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06167414130191273</v>
+        <v>0.04414326415791033</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1026201203546765</v>
+        <v>0.1029925352037693</v>
       </c>
     </row>
     <row r="12">
@@ -916,31 +916,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2631984334656606</v>
+        <v>0.265674717728357</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2818594943876689</v>
+        <v>0.2582720424233146</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2225209459106376</v>
+        <v>0.2161309834081308</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4910962554024668</v>
+        <v>0.4976183129468101</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3957068958704423</v>
+        <v>0.4002457394997699</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1909167135438114</v>
+        <v>0.1950979960325397</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3024143250512585</v>
+        <v>0.3058883204333198</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2436441562610352</v>
+        <v>0.258825475487652</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.190908005473956</v>
+        <v>0.1940810370665854</v>
       </c>
     </row>
     <row r="13">
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08026232450281226</v>
+        <v>0.07932212557036009</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1422598946418509</v>
+        <v>0.1377894371616235</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09029267227327313</v>
+        <v>0.0938722587502511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08355568459265834</v>
+        <v>0.09956606466125049</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03228634034637329</v>
+        <v>0.03224992188398609</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05530404601577173</v>
+        <v>0.0575867296161605</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1270855179920438</v>
+        <v>0.1103515532655842</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1207566149965043</v>
+        <v>0.1177621390558527</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08068087190551841</v>
+        <v>0.08284923037538487</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3989266192099815</v>
+        <v>0.3959597352937484</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3673666910002506</v>
+        <v>0.3631560899513532</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1747321200383908</v>
+        <v>0.1767422911538004</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4615149022557169</v>
+        <v>0.473373859681528</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2936263848338531</v>
+        <v>0.2876248920966124</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1138900179963798</v>
+        <v>0.1151651150935805</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3705319695769829</v>
+        <v>0.3460289020787294</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2918878106245204</v>
+        <v>0.2881662062686012</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.132491391748617</v>
+        <v>0.1320367326460765</v>
       </c>
     </row>
     <row r="16">
@@ -1079,7 +1079,7 @@
         <v>0.1140044804643591</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.07265279448669638</v>
+        <v>0.0726527944866964</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.1541809393775411</v>
@@ -1088,7 +1088,7 @@
         <v>0.1325868921126236</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.08594112537005211</v>
+        <v>0.08594112537005212</v>
       </c>
     </row>
     <row r="17">
@@ -1099,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06786992046948946</v>
+        <v>0.06849935987186968</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09684172350371255</v>
+        <v>0.09425805024546974</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0768936675397817</v>
+        <v>0.0760141445166426</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1094933886086231</v>
+        <v>0.1089055714289755</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06121745751657975</v>
+        <v>0.05836799519533228</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05713289448839835</v>
+        <v>0.05739803517462967</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09957490247078504</v>
+        <v>0.1057949689035786</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09636712251178511</v>
+        <v>0.09271824895462728</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07237665745842482</v>
+        <v>0.0722577442665724</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2267252243656264</v>
+        <v>0.2149385206294889</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.211324891134571</v>
+        <v>0.201887416071744</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1244494632997211</v>
+        <v>0.1231635693200616</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2674929413246837</v>
+        <v>0.2742737836556378</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1940928934743581</v>
+        <v>0.1931950527871795</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09198426324093016</v>
+        <v>0.09104620030575747</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2143753298656221</v>
+        <v>0.2164450712193177</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1815658055732495</v>
+        <v>0.1795149900409775</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1014593771050384</v>
+        <v>0.1016033005307841</v>
       </c>
     </row>
     <row r="19">
@@ -1398,14 +1398,14 @@
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>1535</v>
+        <v>1805</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
       <c r="K6" s="6" t="n">
-        <v>2884</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="7">
@@ -1416,25 +1416,25 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4032</v>
+        <v>4777</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>6352</v>
+        <v>6958</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5034</v>
+        <v>5343</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>7199</v>
+        <v>7410</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5949</v>
+        <v>6893</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>11552</v>
+        <v>10821</v>
       </c>
     </row>
     <row r="8">
@@ -1522,28 +1522,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2200</v>
+        <v>2224</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5558</v>
+        <v>5552</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1282</v>
+        <v>1208</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4039</v>
+        <v>3825</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3432</v>
+        <v>3365</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5542</v>
+        <v>5462</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11451</v>
+        <v>11614</v>
       </c>
     </row>
     <row r="11">
@@ -1554,31 +1554,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10704</v>
+        <v>10099</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11358</v>
+        <v>12384</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18541</v>
+        <v>18142</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>10199</v>
+        <v>10367</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10628</v>
+        <v>10357</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12179</v>
+        <v>12721</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15983</v>
+        <v>16225</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>18736</v>
+        <v>18415</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>26727</v>
+        <v>26427</v>
       </c>
     </row>
     <row r="12">
@@ -1666,28 +1666,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1060</v>
+        <v>1074</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11316</v>
+        <v>11721</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2439</v>
+        <v>2913</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6597</v>
+        <v>6655</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4086</v>
+        <v>4098</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3127</v>
+        <v>2238</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>20954</v>
+        <v>21030</v>
       </c>
     </row>
     <row r="15">
@@ -1698,31 +1698,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7534</v>
+        <v>7605</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8881</v>
+        <v>8138</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>26503</v>
+        <v>25742</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13459</v>
+        <v>13638</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7592</v>
+        <v>7679</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16244</v>
+        <v>16600</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>16944</v>
+        <v>17139</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12352</v>
+        <v>13121</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>38982</v>
+        <v>39629</v>
       </c>
     </row>
     <row r="16">
@@ -1807,31 +1807,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3241</v>
+        <v>3203</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8171</v>
+        <v>7914</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17944</v>
+        <v>18655</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2420</v>
+        <v>2884</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10957</v>
+        <v>11409</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8812</v>
+        <v>7652</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>11109</v>
+        <v>10834</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>32019</v>
+        <v>32879</v>
       </c>
     </row>
     <row r="19">
@@ -1842,31 +1842,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16109</v>
+        <v>15989</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21100</v>
+        <v>20858</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>34725</v>
+        <v>35124</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13366</v>
+        <v>13710</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10147</v>
+        <v>9940</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22564</v>
+        <v>22817</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25693</v>
+        <v>23994</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26852</v>
+        <v>26510</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>52580</v>
+        <v>52399</v>
       </c>
     </row>
     <row r="20">
@@ -1951,31 +1951,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7649</v>
+        <v>7720</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15258</v>
+        <v>14851</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>44137</v>
+        <v>43632</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11936</v>
+        <v>11872</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6661</v>
+        <v>6351</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>30281</v>
+        <v>30421</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>22078</v>
+        <v>23457</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>25669</v>
+        <v>24697</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>79904</v>
+        <v>79773</v>
       </c>
     </row>
     <row r="23">
@@ -1986,31 +1986,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25553</v>
+        <v>24225</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>33296</v>
+        <v>31809</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>71434</v>
+        <v>70696</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>29160</v>
+        <v>29899</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21118</v>
+        <v>21020</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>48752</v>
+        <v>48255</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>47531</v>
+        <v>47990</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>48362</v>
+        <v>47816</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>112011</v>
+        <v>112170</v>
       </c>
     </row>
     <row r="24">
